--- a/PhpProjectVenta/docs/11 setiembre 2017/NormalizacionSistemaVentasActualizada.xlsx
+++ b/PhpProjectVenta/docs/11 setiembre 2017/NormalizacionSistemaVentasActualizada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Paradigmas BBDD trazabilidad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pto\xm\ProyectoVentasBrandon\ProyectoVentas5.1\PhpProjectVenta\docs\11 setiembre 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
   <si>
     <t>Personas</t>
   </si>
@@ -230,9 +230,6 @@
     <t>PrecioZona</t>
   </si>
   <si>
-    <t>EmpeadoLicencia</t>
-  </si>
-  <si>
     <t>vehiculo</t>
   </si>
   <si>
@@ -453,13 +450,26 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>EmpleadoLicencia</t>
+  </si>
+  <si>
+    <t>facturaestado</t>
+  </si>
+  <si>
+    <t>ventaestado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +501,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -529,9 +546,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -544,11 +562,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,10 +932,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>2</v>
@@ -946,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1188,7 +1207,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -1203,13 +1222,13 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>10</v>
@@ -1226,7 +1245,7 @@
         <v>58</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1341,7 +1360,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>67</v>
@@ -1350,14 +1369,14 @@
         <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="M15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1365,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4">
         <v>2000</v>
@@ -1374,28 +1393,28 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="U16" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1403,7 +1422,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4">
         <v>1000</v>
@@ -1427,7 +1446,7 @@
         <v>407776</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T17" s="4">
         <v>2008</v>
@@ -1441,7 +1460,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4">
         <v>1000</v>
@@ -1465,7 +1484,7 @@
         <v>608734</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T18" s="4">
         <v>2017</v>
@@ -1479,7 +1498,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4">
         <v>500</v>
@@ -1503,7 +1522,7 @@
         <v>490765</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T19" s="4">
         <v>2005</v>
@@ -1514,79 +1533,79 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="R22" s="1"/>
-      <c r="T22" s="11"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="4">
         <v>2500</v>
@@ -1595,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L24" s="4">
         <v>9000</v>
@@ -1613,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4">
@@ -1622,17 +1641,17 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F25" s="4">
         <v>4500</v>
@@ -1641,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="L25" s="4">
         <v>500</v>
@@ -1659,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4">
@@ -1668,17 +1687,17 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4">
         <v>1700</v>
@@ -1687,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L26" s="4">
         <v>1700</v>
@@ -1704,17 +1723,17 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F27" s="4">
         <v>5000</v>
@@ -1723,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="L27" s="4">
         <v>2000</v>
@@ -1740,18 +1759,18 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="J28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="L28" s="4">
         <v>7000</v>
@@ -1765,23 +1784,23 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>9</v>
@@ -1790,29 +1809,34 @@
         <v>54</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="L32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>23</v>
@@ -1829,21 +1853,26 @@
       <c r="F33" s="4">
         <v>6305</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
       <c r="L33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>41</v>
@@ -1860,21 +1889,26 @@
       <c r="F34" s="4">
         <v>3325</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
       <c r="L34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>23</v>
@@ -1891,21 +1925,26 @@
       <c r="F35" s="4">
         <v>5795</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
       <c r="L35" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N35" s="4">
         <v>3</v>
       </c>
       <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>41</v>
@@ -1922,21 +1961,26 @@
       <c r="F36" s="4">
         <v>5335</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
       <c r="L36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>41</v>
@@ -1953,17 +1997,22 @@
       <c r="F37" s="4">
         <v>5700</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
       <c r="L37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N37" s="4">
         <v>2</v>
       </c>
       <c r="O37" s="4"/>
+      <c r="P37">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
